--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="910" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装備マスタ" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="262">
   <si>
     <t>名前</t>
   </si>
@@ -1096,6 +1096,85 @@
   </si>
   <si>
     <t>1000003</t>
+  </si>
+  <si>
+    <t>聖水</t>
+    <rPh sb="0" eb="2">
+      <t>▽セイスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒消し草</t>
+    <rPh sb="0" eb="1">
+      <t>▽ドク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>▽ケ*s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>▽クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20013.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20014.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assets/item/20015.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神の加護を得る</t>
+    <rPh sb="0" eb="1">
+      <t>▽カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>▽カゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>▽エ*r</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒状態を解除する</t>
+    <rPh sb="0" eb="1">
+      <t>▽ドク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>▽ジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>▽カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒消し草X</t>
+    <rPh sb="0" eb="1">
+      <t>▽ドク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>▽ケ*s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>▽クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRubyStoredScript.holy_water</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRubyStoredScript.recovery_poison</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1237,8 +1316,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3971">
+  <cellStyleXfs count="3977">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5234,7 +5319,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3971">
+  <cellStyles count="3977">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -7220,6 +7305,9 @@
     <cellStyle name="ハイパーリンク" xfId="3965" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3967" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3969" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3971" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3973" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3975" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -9206,6 +9294,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="3966" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3968" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3970" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3972" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3974" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3976" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -10141,9 +10232,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -10540,6 +10633,60 @@
       </c>
       <c r="F27" s="17" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>20013</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>20014</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>20015</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -11278,7 +11425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -557,16 +557,10 @@
     <t>HP + 30</t>
   </si>
   <si>
-    <t>ポーションA</t>
-  </si>
-  <si>
     <t>HP + 100</t>
   </si>
   <si>
     <t>最大HPの70%分が回復</t>
-  </si>
-  <si>
-    <t>ポーションXXX</t>
   </si>
   <si>
     <t>HPが最大HPまで回復</t>
@@ -1174,6 +1168,14 @@
   </si>
   <si>
     <t>ItemRubyStoredScript.recovery_poison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーションS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーションXX</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9698,7 +9700,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9779,15 +9781,15 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -9830,7 +9832,7 @@
         <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>88</v>
@@ -9851,7 +9853,7 @@
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -9870,7 +9872,7 @@
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -9889,7 +9891,7 @@
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -9908,7 +9910,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -9927,7 +9929,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -9946,7 +9948,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -9965,7 +9967,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -9984,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G25" s="17"/>
     </row>
@@ -10003,7 +10005,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G26" s="17"/>
     </row>
@@ -10022,7 +10024,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -10041,7 +10043,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G28" s="17"/>
     </row>
@@ -10060,7 +10062,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G29" s="17"/>
     </row>
@@ -10079,7 +10081,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G30" s="17"/>
     </row>
@@ -10098,7 +10100,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>105</v>
@@ -10119,7 +10121,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -10138,7 +10140,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -10157,7 +10159,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -10176,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -10195,7 +10197,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -10214,7 +10216,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G37" s="17"/>
     </row>
@@ -10235,7 +10237,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10299,12 +10301,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10368,15 +10370,15 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -10399,7 +10401,7 @@
         <v>114</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>88</v>
@@ -10413,13 +10415,13 @@
         <v>115</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>116</v>
@@ -10430,19 +10432,19 @@
         <v>20002</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10450,19 +10452,19 @@
         <v>20003</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10470,19 +10472,19 @@
         <v>20004</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10490,19 +10492,19 @@
         <v>20005</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10510,19 +10512,19 @@
         <v>20006</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10530,19 +10532,19 @@
         <v>20007</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10550,19 +10552,19 @@
         <v>20008</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10570,17 +10572,17 @@
         <v>20009</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10588,17 +10590,17 @@
         <v>20010</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10606,14 +10608,14 @@
         <v>20011</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F26" s="17"/>
     </row>
@@ -10622,17 +10624,17 @@
         <v>20012</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10640,17 +10642,17 @@
         <v>20013</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10658,17 +10660,17 @@
         <v>20014</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10676,17 +10678,17 @@
         <v>20015</v>
       </c>
       <c r="B30" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -10721,7 +10723,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10737,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10755,7 +10757,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -10770,12 +10772,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -10793,7 +10795,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -10816,7 +10818,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10840,7 +10842,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10848,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10856,7 +10858,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10864,7 +10866,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10872,7 +10874,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10880,7 +10882,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10888,7 +10890,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10896,7 +10898,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -10957,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10965,7 +10967,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10975,7 +10977,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -10990,12 +10992,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -11005,7 +11007,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -11036,12 +11038,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -11052,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11060,7 +11062,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11068,7 +11070,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11076,7 +11078,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11084,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11092,7 +11094,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -11137,7 +11139,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11150,10 +11152,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11171,7 +11173,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>3</v>
@@ -11186,12 +11188,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11201,13 +11203,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -11217,7 +11219,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11235,13 +11237,13 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -11251,13 +11253,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11289,12 +11291,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11303,10 +11305,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -11314,7 +11316,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11323,7 +11325,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
@@ -11335,7 +11337,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11344,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -11355,7 +11357,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11364,7 +11366,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="15">
         <v>2</v>
@@ -11375,7 +11377,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11384,7 +11386,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" s="15">
         <v>2</v>
@@ -11441,7 +11443,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11454,10 +11456,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11465,7 +11467,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11475,7 +11477,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -11490,12 +11492,12 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -11505,7 +11507,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -11521,7 +11523,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -11539,29 +11541,29 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -11571,7 +11573,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -11593,12 +11595,12 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -11607,10 +11609,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -11618,7 +11620,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8">
         <v>41131.8125</v>
@@ -11627,7 +11629,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -11638,7 +11640,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8">
         <v>41131.8125</v>
@@ -11647,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -11658,7 +11660,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="8">
         <v>41131.833333333336</v>
@@ -11667,7 +11669,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -11678,7 +11680,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="8">
         <v>41131.875</v>
@@ -11687,7 +11689,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -11838,7 +11840,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
@@ -11854,7 +11856,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -11862,7 +11864,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -11870,7 +11872,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -11883,7 +11885,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2">

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="260">
   <si>
     <t>名前</t>
   </si>
@@ -1120,10 +1120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>assets/item/20015.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>神の加護を得る</t>
     <rPh sb="0" eb="1">
       <t>▽カミ</t>
@@ -1146,19 +1142,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>▽カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毒消し草X</t>
-    <rPh sb="0" eb="1">
-      <t>▽ドク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>▽ケ*s</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>▽クサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10234,10 +10217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10432,7 +10415,7 @@
         <v>20002</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>243</v>
@@ -10472,7 +10455,7 @@
         <v>20004</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>243</v>
@@ -10645,14 +10628,14 @@
         <v>250</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>252</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10663,32 +10646,14 @@
         <v>251</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
         <v>253</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
-        <v>20015</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/02_item.xlsx
+++ b/app/seeds/02_item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="261">
   <si>
     <t>名前</t>
   </si>
@@ -1150,15 +1150,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ItemRubyStoredScript.recovery_poison</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポーションS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ポーションXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatusRubyStoredScript.recovery_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"status":"poison"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10220,7 +10224,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10415,7 +10419,7 @@
         <v>20002</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>243</v>
@@ -10455,7 +10459,7 @@
         <v>20004</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>243</v>
@@ -10646,9 +10650,11 @@
         <v>251</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="17"/>
+        <v>259</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>260</v>
+      </c>
       <c r="E29" s="17" t="s">
         <v>253</v>
       </c>
